--- a/4.Clustering/Clustering_step_by_step.xlsx
+++ b/4.Clustering/Clustering_step_by_step.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DSB7/4.Clustering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/Data-Science-9/4.Clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EE93D-A004-E648-A2A5-120A74E130FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B496D2EA-4028-E64C-8657-41826FF080AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{588698A1-F7A6-2641-986E-1F9334812284}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{588698A1-F7A6-2641-986E-1F9334812284}"/>
   </bookViews>
   <sheets>
     <sheet name="Kmeans" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -275,10 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -602,7 +599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE885862-95D5-E140-89DD-7EBF637FD475}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -627,7 +626,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -647,7 +646,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3">
@@ -668,7 +667,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4">
@@ -690,7 +689,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -712,7 +711,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
       <c r="B6">
@@ -734,7 +733,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7">
@@ -756,7 +755,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8">
@@ -974,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBB0082-CD6D-1B4E-AE2F-DD80DBDEAAE9}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1033,7 @@
       <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <f>((B3-$B$2)^2+(C3-$C$2)^2)^0.5</f>
         <v>500.00399998400013</v>
       </c>
@@ -1059,7 +1058,7 @@
       <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <f t="shared" ref="F4:F8" si="0">((B4-$B$2)^2+(C4-$C$2)^2)^0.5</f>
         <v>2000.0022499987344</v>
       </c>
@@ -1113,11 +1112,11 @@
         <f t="shared" si="0"/>
         <v>200.00249998437519</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <f t="shared" si="1"/>
         <v>300.01499962501873</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <f t="shared" si="2"/>
         <v>2200.0009090907211</v>
       </c>
@@ -1234,41 +1233,39 @@
         <v>20</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>300.01499962501873</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E15" s="9">
         <v>2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>2000.0022499987344</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>2500.0049999950002</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" t="s">
         <v>17</v>
       </c>
@@ -1281,19 +1278,19 @@
       <c r="E16" s="9">
         <v>3</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>1500</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>2000</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="11">
         <v>500.01</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" t="s">
         <v>11</v>
       </c>
       <c r="M16" t="s">
@@ -1304,43 +1301,41 @@
       <c r="E17" s="9">
         <v>5</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>2500.0128</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17">
         <v>3000</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17">
         <v>500.02</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <v>1000</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E18" s="9">
         <v>6</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>6000.0163000000002</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18">
         <v>6500</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18">
         <v>4000</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18">
         <v>4500</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="5">
         <v>3500</v>
       </c>
       <c r="K18" s="8"/>
-      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.2">
       <c r="F19" s="10" t="s">
@@ -1361,7 +1356,6 @@
       <c r="K19">
         <v>6</v>
       </c>
-      <c r="L19" s="11"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
@@ -1369,39 +1363,37 @@
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="11"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="11"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E24" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="5">
         <v>2000</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="11" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24">
@@ -1413,17 +1405,17 @@
       <c r="E25" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="5">
         <v>1500</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="11">
         <v>500.01</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="11" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" t="s">
         <v>11</v>
       </c>
       <c r="M25" t="s">
@@ -1434,41 +1426,39 @@
       <c r="E26" s="9">
         <v>5</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="5">
         <v>2500</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26">
         <v>500.02</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="11">
         <v>1000</v>
       </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="11"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E27" s="9">
         <v>6</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="5">
         <v>6000</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27">
         <v>4000</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27">
         <v>4500</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="5">
         <v>3500</v>
       </c>
       <c r="J27" s="8"/>
-      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="10">
@@ -1490,25 +1480,23 @@
       </c>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E32" s="10" t="s">
@@ -1518,11 +1506,11 @@
         <v>1500</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="11" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" t="s">
         <v>23</v>
       </c>
       <c r="M32">
@@ -1537,14 +1525,14 @@
       <c r="F33">
         <v>2500</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33">
         <v>500.02</v>
       </c>
       <c r="H33" s="8"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="11" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" t="s">
         <v>11</v>
       </c>
       <c r="M33" t="s">
@@ -1558,16 +1546,14 @@
       <c r="F34">
         <v>6000</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34">
         <v>4000</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34">
         <v>3500</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.2">
       <c r="F35" s="10" t="s">
@@ -1582,29 +1568,27 @@
       <c r="I35" s="9">
         <v>6</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="L35" s="11"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="F38" s="12"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="11"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E39" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="11" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" t="s">
         <v>23</v>
       </c>
       <c r="M39">
@@ -1620,11 +1604,11 @@
         <v>1500</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="11" t="s">
+      <c r="H40" s="5"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" t="s">
         <v>11</v>
       </c>
       <c r="M40" t="s">
@@ -1638,14 +1622,12 @@
       <c r="F41">
         <v>6000</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41">
         <v>3500</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="11"/>
+      <c r="I41" s="5"/>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.2">
       <c r="F42" s="10" t="s">
@@ -1658,18 +1640,17 @@
         <v>6</v>
       </c>
       <c r="I42" s="9"/>
-      <c r="J42" s="12"/>
-      <c r="L42" s="11"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E45" s="10"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="11" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" t="s">
         <v>23</v>
       </c>
       <c r="M45">
@@ -1682,12 +1663,12 @@
         <v>25</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="11" t="s">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" t="s">
         <v>11</v>
       </c>
       <c r="M46" t="s">
@@ -1698,15 +1679,13 @@
       <c r="E47" s="9">
         <v>6</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="5">
         <v>3500</v>
       </c>
       <c r="G47" s="8"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="11"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.2">
       <c r="F48" s="10" t="s">
@@ -1715,10 +1694,10 @@
       <c r="G48" s="10">
         <v>6</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="L48" s="11" t="s">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="L48" t="s">
         <v>11</v>
       </c>
       <c r="M48" t="s">
